--- a/pred_ohlcv/54_21/2020-01-24 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 APIS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>169806.2926000012</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>170678.7720000012</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2666803.553399999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2681789.400799999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2680915.239299999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4441258.773499999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4440381.7036</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3271390.697399999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6194877.992699999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7521129.627799999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9564246.558699999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-12752925.2374</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16185078.36</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-18395839.0474</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-11622283.2897</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-13246484.4032</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-13559073.3945</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-13554152.3945</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21544450.858</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-18874241.8942</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17874215.7286</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-16039005.9853</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-18474058.23399999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23299309.05999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-28640374.6626</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-30583818.8436</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-33769327.15589999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-33771082.15769999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-38001250.14889999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-40112487.40499999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-40940183.60159999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-40939259.49969999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-42468396.91559999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-43458062.7401</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-40664707.4432</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-37941842.2224</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-44184809.8406</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44187605.29189999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-46132130.94189999</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-48371888.25019999</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-45540253.77649999</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-48454338.28039999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-47619714.67709999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-48945601.42749999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48944692.30759998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-49216589.09949999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-51835640.40149999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-52709181.21129999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-53612075.58919998</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 APIS ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2576873.841100001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>169806.2926000012</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>170678.7720000012</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2666803.553399999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2681789.400799999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2680915.239299999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4441258.773499999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4440381.7036</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3271390.697399999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6194877.992699999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7521129.627799999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9564246.558699999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8812072.7775</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-13612101.3495</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16185078.36</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16170993.1033</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-13072629.1635</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-11622283.2897</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-13246484.4032</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-13559073.3945</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-13554152.3945</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21544450.858</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-18874241.8942</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17874215.7286</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-16039005.9853</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-18474058.23399999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-23299309.05999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-28640374.6626</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-30583818.8436</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-33769327.15589999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-33771082.15769999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-38001250.14889999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-40112487.40499999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-40940183.60159999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-40939259.49969999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-42468396.91559999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-43458062.7401</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-40664707.4432</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-37941842.2224</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-44184809.8406</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-42585415.027</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-44187605.29189999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-48371888.25019999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-45540253.77649999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-48454338.28039999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-47619714.67709999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-48945601.42749999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48944692.30759998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-52709181.21129999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-53612075.58919998</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
